--- a/利息明细.xlsx
+++ b/利息明细.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="79">
   <si>
     <t>2018-05</t>
   </si>
@@ -151,12 +151,118 @@
   </si>
   <si>
     <t>2.88</t>
+  </si>
+  <si>
+    <t>23.25</t>
+  </si>
+  <si>
+    <t>2018-07-05</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>循环利息</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>上期消费余额</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>消费利息余额</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>1.45</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>20.25</t>
+  </si>
+  <si>
+    <t>2018-07-07</t>
+  </si>
+  <si>
+    <t>上期消费余额(退货)</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>取现</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>随便买的</t>
+  </si>
+  <si>
+    <t>-13.00</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>退货(回算)</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>1.31</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>0.42</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -483,17 +589,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="4" width="11.08203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="8.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" bestFit="true" customWidth="true" width="11.08203125" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="8.5" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="25.25" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -513,277 +619,307 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
+    <row r="4">
       <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D6" t="s">
         <v>4</v>
       </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="10">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
+    <row r="22">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
         <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" t="s">
-        <v>39</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="E23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -803,29 +939,199 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
         <v>30</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C33" t="s">
         <v>31</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D33" t="s">
         <v>22</v>
       </c>
-      <c r="E26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="E33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E27" t="s">
-        <v>39</v>
+    <row r="37">
+      <c r="E37" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/利息明细.xlsx
+++ b/利息明细.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,243 +19,396 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2378" uniqueCount="130">
+  <si>
+    <t>2018-01</t>
+  </si>
+  <si>
+    <t>计息金额</t>
+  </si>
+  <si>
+    <t>起息日</t>
+  </si>
+  <si>
+    <t>止息日</t>
+  </si>
+  <si>
+    <t>计息天数</t>
+  </si>
+  <si>
+    <t>利息金额</t>
+  </si>
+  <si>
+    <t>摘要</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>2018-02</t>
+  </si>
+  <si>
+    <t>2018-03</t>
+  </si>
+  <si>
+    <t>2018-04</t>
+  </si>
   <si>
     <t>2018-05</t>
   </si>
   <si>
-    <t>计息金额</t>
-  </si>
-  <si>
-    <t>起息日</t>
-  </si>
-  <si>
-    <t>止息日</t>
-  </si>
-  <si>
-    <t>计息天数</t>
-  </si>
-  <si>
-    <t>利息金额</t>
-  </si>
-  <si>
-    <t>摘要</t>
-  </si>
-  <si>
-    <t>700.00</t>
-  </si>
-  <si>
-    <t>2018-06-02</t>
+    <t>2018-06</t>
+  </si>
+  <si>
+    <t>2018-07</t>
+  </si>
+  <si>
+    <t>23.25</t>
+  </si>
+  <si>
+    <t>2018-06-06</t>
+  </si>
+  <si>
+    <t>2018-07-05</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>循环利息</t>
+  </si>
+  <si>
+    <t>2018-07-06</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>上期消费余额</t>
+  </si>
+  <si>
+    <t>20.25</t>
+  </si>
+  <si>
+    <t>2018-07-07</t>
+  </si>
+  <si>
+    <t>2018-08-05</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>上期消费余额(退货)</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>取现</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>2018-08</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>随便买的</t>
+  </si>
+  <si>
+    <t>-13.00</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>退货(回算)</t>
+  </si>
+  <si>
+    <t>2018-08-06</t>
+  </si>
+  <si>
+    <t>2018-09-05</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>消费利息余额</t>
+  </si>
+  <si>
+    <t>上期取现余额</t>
+  </si>
+  <si>
+    <t>取现利息余额</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>2018-09</t>
+  </si>
+  <si>
+    <t>2018-09-06</t>
+  </si>
+  <si>
+    <t>2018-10-05</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>2018-10</t>
+  </si>
+  <si>
+    <t>2018-10-06</t>
+  </si>
+  <si>
+    <t>2018-11-05</t>
+  </si>
+  <si>
+    <t>1.31</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>2018-11</t>
+  </si>
+  <si>
+    <t>2018-12</t>
+  </si>
+  <si>
+    <t>2019-01</t>
+  </si>
+  <si>
+    <t>2019-02</t>
+  </si>
+  <si>
+    <t>2019-03</t>
+  </si>
+  <si>
+    <t>2019-04</t>
+  </si>
+  <si>
+    <t>2019-05</t>
+  </si>
+  <si>
+    <t>2019-06</t>
+  </si>
+  <si>
+    <t>2019-07</t>
+  </si>
+  <si>
+    <t>2019-08</t>
+  </si>
+  <si>
+    <t>2018-11-06</t>
+  </si>
+  <si>
+    <t>2018-12-05</t>
+  </si>
+  <si>
+    <t>1.64</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>2018-04-06</t>
+  </si>
+  <si>
+    <t>2018-05-05</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>2018-05-06</t>
   </si>
   <si>
     <t>2018-06-05</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>掌上取现</t>
-  </si>
-  <si>
-    <t>2018-06</t>
-  </si>
-  <si>
-    <t>2018-06-06</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>上期取现余额</t>
-  </si>
-  <si>
-    <t>1.40</t>
-  </si>
-  <si>
-    <t>取现利息余额</t>
-  </si>
-  <si>
-    <t>2018-07</t>
-  </si>
-  <si>
-    <t>2018-07-06</t>
-  </si>
-  <si>
-    <t>2018-08-05</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>2018-08</t>
-  </si>
-  <si>
-    <t>2018-08-06</t>
-  </si>
-  <si>
-    <t>2018-09-05</t>
-  </si>
-  <si>
-    <t>2018-09</t>
-  </si>
-  <si>
-    <t>2018-09-06</t>
-  </si>
-  <si>
-    <t>2018-10-05</t>
-  </si>
-  <si>
-    <t>2018-10</t>
-  </si>
-  <si>
-    <t>2018-10-06</t>
-  </si>
-  <si>
-    <t>2018-11-05</t>
-  </si>
-  <si>
-    <t>0.30</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>2018-06-12</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2.45</t>
-  </si>
-  <si>
-    <t>2018-06-07</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>2.84</t>
-  </si>
-  <si>
-    <t>2.75</t>
-  </si>
-  <si>
-    <t>2.80</t>
-  </si>
-  <si>
-    <t>2.88</t>
-  </si>
-  <si>
-    <t>23.25</t>
-  </si>
-  <si>
-    <t>2018-07-05</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>循环利息</t>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>1.57</t>
+  </si>
+  <si>
+    <t>3.07</t>
+  </si>
+  <si>
+    <t>0.05</t>
   </si>
   <si>
     <t>0.36</t>
   </si>
   <si>
-    <t>上期消费余额</t>
+    <t>4.62</t>
+  </si>
+  <si>
+    <t>1.62</t>
+  </si>
+  <si>
+    <t>取现利息余额(退货)</t>
+  </si>
+  <si>
+    <t>2.36</t>
   </si>
   <si>
     <t>0.71</t>
   </si>
   <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>消费利息余额</t>
-  </si>
-  <si>
-    <t>0.37</t>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>1.63</t>
+  </si>
+  <si>
+    <t>3.27</t>
+  </si>
+  <si>
+    <t>2.05</t>
   </si>
   <si>
     <t>1.08</t>
   </si>
   <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>1.45</t>
-  </si>
-  <si>
-    <t>0.38</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>20.25</t>
-  </si>
-  <si>
-    <t>2018-07-07</t>
-  </si>
-  <si>
-    <t>上期消费余额(退货)</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>取现</t>
-  </si>
-  <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>随便买的</t>
-  </si>
-  <si>
-    <t>-13.00</t>
-  </si>
-  <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>退货(回算)</t>
-  </si>
-  <si>
-    <t>0.31</t>
-  </si>
-  <si>
-    <t>0.66</t>
-  </si>
-  <si>
-    <t>0.40</t>
-  </si>
-  <si>
-    <t>0.99</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>1.31</t>
-  </si>
-  <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>0.42</t>
+    <t>1.58</t>
+  </si>
+  <si>
+    <t>4.95</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>1.44</t>
+  </si>
+  <si>
+    <t>6.60</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.50</t>
+  </si>
+  <si>
+    <t>15.73</t>
+  </si>
+  <si>
+    <t>30.73</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>15.46</t>
+  </si>
+  <si>
+    <t>46.19</t>
+  </si>
+  <si>
+    <t>43.19</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>16.96</t>
+  </si>
+  <si>
+    <t>1005.00</t>
+  </si>
+  <si>
+    <t>15.58</t>
+  </si>
+  <si>
+    <t>59.44</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>16.87</t>
+  </si>
+  <si>
+    <t>15.08</t>
+  </si>
+  <si>
+    <t>75.94</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>16.58</t>
+  </si>
+  <si>
+    <t>92.15</t>
+  </si>
+  <si>
+    <t>1.43</t>
+  </si>
+  <si>
+    <t>17.39</t>
+  </si>
+  <si>
+    <t>1.83</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>109.16</t>
+  </si>
+  <si>
+    <t>17.09</t>
   </si>
 </sst>
 </file>
@@ -581,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G27"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -596,7 +749,7 @@
   <sheetData>
     <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -620,518 +773,798 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>104</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>13</v>
+      <c r="E5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="E7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>103</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
       <c r="E10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>108</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>23</v>
+      <c r="E15" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" t="s">
         <v>25</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>112</v>
+      </c>
+      <c r="F23" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
-        <v>26</v>
+      <c r="E24" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>22</v>
+      </c>
+      <c r="F30" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>114</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="F32" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" t="s">
-        <v>22</v>
-      </c>
       <c r="E33" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" t="s">
         <v>30</v>
       </c>
-      <c r="C36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" t="s">
+        <v>115</v>
+      </c>
+      <c r="F45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" t="s">
+        <v>124</v>
+      </c>
+      <c r="F46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="E37" t="s">
-        <v>78</v>
+      <c r="F50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" t="s">
+        <v>127</v>
+      </c>
+      <c r="F51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" t="s">
+        <v>119</v>
+      </c>
+      <c r="F52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" t="s">
+        <v>72</v>
+      </c>
+      <c r="F53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/利息明细.xlsx
+++ b/利息明细.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2378" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9464" uniqueCount="639">
   <si>
     <t>2018-01</t>
   </si>
@@ -409,6 +409,1533 @@
   </si>
   <si>
     <t>17.09</t>
+  </si>
+  <si>
+    <t>2017-11</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>2017-10-31</t>
+  </si>
+  <si>
+    <t>2017-11-05</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>手机官网e招贷</t>
+  </si>
+  <si>
+    <t>2017-11-03</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>掌上生活e招贷</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>2014-03</t>
+  </si>
+  <si>
+    <t>2014-04</t>
+  </si>
+  <si>
+    <t>2014-05</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>2014-02-27</t>
+  </si>
+  <si>
+    <t>2014-03-03</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>支付宝-网购</t>
+  </si>
+  <si>
+    <t>29.90</t>
+  </si>
+  <si>
+    <t>2014-02-28</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2014-03-01</t>
+  </si>
+  <si>
+    <t>2014-03-02</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>97.93</t>
+  </si>
+  <si>
+    <t>2014-03-04</t>
+  </si>
+  <si>
+    <t>2014-04-03</t>
+  </si>
+  <si>
+    <t>1.52</t>
+  </si>
+  <si>
+    <t>1.76</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>35.40</t>
+  </si>
+  <si>
+    <t>2014-03-05</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>2014-03-06</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>2014-03-08</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>掌上生活手机充值</t>
+  </si>
+  <si>
+    <t>63.65</t>
+  </si>
+  <si>
+    <t>2014-03-10</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>大连高新园区话题休闲餐厅</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>1.56</t>
+  </si>
+  <si>
+    <t>大连高新园区新煮意餐饮店</t>
+  </si>
+  <si>
+    <t>16.16</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>2014-03-11</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>2014-03-12</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>94.10</t>
+  </si>
+  <si>
+    <t>东莞市莞城欧诗雨服装店</t>
+  </si>
+  <si>
+    <t>17.00</t>
+  </si>
+  <si>
+    <t>2014-03-13</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2014-03-14</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>2014-03-15</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>233.65</t>
+  </si>
+  <si>
+    <t>2014-03-16</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2.22</t>
+  </si>
+  <si>
+    <t>乐购</t>
+  </si>
+  <si>
+    <t>2014-03-18</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>2014-03-20</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>200.10</t>
+  </si>
+  <si>
+    <t>好又多百货商业广场学苑分公司</t>
+  </si>
+  <si>
+    <t>136.00</t>
+  </si>
+  <si>
+    <t>2014-03-23</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>2014-03-24</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>掌上生活彩票充值</t>
+  </si>
+  <si>
+    <t>30.20</t>
+  </si>
+  <si>
+    <t>2014-03-27</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9.00</t>
+  </si>
+  <si>
+    <t>2014-03-28</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2014-03-29</t>
+  </si>
+  <si>
+    <t>2014-03-30</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>新天地百货</t>
+  </si>
+  <si>
+    <t>134.76</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>大连市商业城兰桂坊甜品店</t>
+  </si>
+  <si>
+    <t>379.00</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>2014-04-02</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>大连锦辉购物广场有限责任公司书香园店</t>
+  </si>
+  <si>
+    <t>2612.95</t>
+  </si>
+  <si>
+    <t>2014-04-04</t>
+  </si>
+  <si>
+    <t>2014-05-03</t>
+  </si>
+  <si>
+    <t>39.19</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>2014-04-25</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>预借现金交易</t>
+  </si>
+  <si>
+    <t>53.28</t>
+  </si>
+  <si>
+    <t>2014-01</t>
+  </si>
+  <si>
+    <t>2014-02</t>
+  </si>
+  <si>
+    <t>3.93</t>
+  </si>
+  <si>
+    <t>2014-03-07</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>支付宝-网购(本行CDM还款)</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>2012.95</t>
+  </si>
+  <si>
+    <t>2014-04-20</t>
+  </si>
+  <si>
+    <t>17.11</t>
+  </si>
+  <si>
+    <t>上期消费余额(本行CDM还款)</t>
+  </si>
+  <si>
+    <t>2012.93</t>
+  </si>
+  <si>
+    <t>2014-04-21</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>13.08</t>
+  </si>
+  <si>
+    <t>上期消费余额(自动还款)</t>
+  </si>
+  <si>
+    <t>44.23</t>
+  </si>
+  <si>
+    <t>2014-06</t>
+  </si>
+  <si>
+    <t>49.50</t>
+  </si>
+  <si>
+    <t>2014-04-05</t>
+  </si>
+  <si>
+    <t>2014-04-17</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>11.00</t>
+  </si>
+  <si>
+    <t>2014-04-09</t>
+  </si>
+  <si>
+    <t>大连和平广场精点味道面包和平广场店</t>
+  </si>
+  <si>
+    <t>38.64</t>
+  </si>
+  <si>
+    <t>2014-04-10</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>2014-04-11</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>2014-04-13</t>
+  </si>
+  <si>
+    <t>36.50</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>106.40</t>
+  </si>
+  <si>
+    <t>2014-04-15</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>2014-04-16</t>
+  </si>
+  <si>
+    <t>2014-04-18</t>
+  </si>
+  <si>
+    <t>2014-04-23</t>
+  </si>
+  <si>
+    <t>支付宝-网购(账单分期￥-       606.04)</t>
+  </si>
+  <si>
+    <t>2014-04-04￥       49.50元交易已分期</t>
+  </si>
+  <si>
+    <t>2014-04-12￥      118.00元交易已分期</t>
+  </si>
+  <si>
+    <t>2014-04-08￥       20.00元交易已分期</t>
+  </si>
+  <si>
+    <t>2014-04-09￥       38.64元交易已分期</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>2014-04-15￥       95.00元交易已分期</t>
+  </si>
+  <si>
+    <t>2014-04-14￥      106.40元交易已分期</t>
+  </si>
+  <si>
+    <t>2014-04-04￥       11.00元交易已分期</t>
+  </si>
+  <si>
+    <t>2014-04-14￥       36.50元交易已分期</t>
+  </si>
+  <si>
+    <t>2014-04-12￥       36.50元交易已分期</t>
+  </si>
+  <si>
+    <t>2014-04-12￥       33.00元交易已分期</t>
+  </si>
+  <si>
+    <t>2014-04-10￥       49.50元交易已分期</t>
+  </si>
+  <si>
+    <t>2014-04-10￥       12.00元交易已分期</t>
+  </si>
+  <si>
+    <t>202.01</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>账单分期(交易) 01-03</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>支付宝-北京三快科技有限公司</t>
+  </si>
+  <si>
+    <t>8.90</t>
+  </si>
+  <si>
+    <t>大连罗森便利店有限公司</t>
+  </si>
+  <si>
+    <t>27.70</t>
+  </si>
+  <si>
+    <t>2014-04-22</t>
+  </si>
+  <si>
+    <t>52.60</t>
+  </si>
+  <si>
+    <t>华润万家生活超市高新分公*</t>
+  </si>
+  <si>
+    <t>28.14</t>
+  </si>
+  <si>
+    <t>2014-04-24</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>2014-04-09￥       38.64元交易已分期(支付宝-北京三快科技有限公司)</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>2014-04-15￥       95.00元交易已分期(支付宝-北京三快科技有限公司)</t>
+  </si>
+  <si>
+    <t>2014-04-14￥      106.40元交易已分期(支付宝-北京三快科技有限公司)</t>
+  </si>
+  <si>
+    <t>2014-04-04￥       11.00元交易已分期(支付宝-北京三快科技有限公司)</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>2014-04-14￥       36.50元交易已分期(支付宝-北京三快科技有限公司)</t>
+  </si>
+  <si>
+    <t>2014-04-12￥       36.50元交易已分期(支付宝-北京三快科技有限公司)</t>
+  </si>
+  <si>
+    <t>2014-04-12￥       33.00元交易已分期(支付宝-北京三快科技有限公司)</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>2014-04-10￥       49.50元交易已分期(支付宝-北京三快科技有限公司)</t>
+  </si>
+  <si>
+    <t>2014-04-10￥       12.00元交易已分期(支付宝-北京三快科技有限公司)</t>
+  </si>
+  <si>
+    <t>支付宝-网购(支付宝-北京三快科技有限公司)</t>
+  </si>
+  <si>
+    <t>支付宝-北京三快科技有限公司(支付宝-北京三快科技有限公司)</t>
+  </si>
+  <si>
+    <t>大连罗森便利店有限公司(支付宝-北京三快科技有限公司)</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>华润万家生活超市高新分公*(支付宝-北京三快科技有限公司)</t>
+  </si>
+  <si>
+    <t>支付宝-北京三快科技有限公司(回算)</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>2014-04-26</t>
+  </si>
+  <si>
+    <t>2.40</t>
+  </si>
+  <si>
+    <t>大连市中山区琦利芒果超市</t>
+  </si>
+  <si>
+    <t>68.60</t>
+  </si>
+  <si>
+    <t>2014-04-29</t>
+  </si>
+  <si>
+    <t>770.00</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>北镇李艳杰日杂商店</t>
+  </si>
+  <si>
+    <t>4221.27</t>
+  </si>
+  <si>
+    <t>2014-05-04</t>
+  </si>
+  <si>
+    <t>2014-06-03</t>
+  </si>
+  <si>
+    <t>65.43</t>
+  </si>
+  <si>
+    <t>43.33</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>3.13</t>
+  </si>
+  <si>
+    <t>上期分期余额</t>
+  </si>
+  <si>
+    <t>85.12</t>
+  </si>
+  <si>
+    <t>2014-07</t>
+  </si>
+  <si>
+    <t>2014-06-04</t>
+  </si>
+  <si>
+    <t>2014-07-03</t>
+  </si>
+  <si>
+    <t>63.32</t>
+  </si>
+  <si>
+    <t>120.58</t>
+  </si>
+  <si>
+    <t>1.81</t>
+  </si>
+  <si>
+    <t>4.01</t>
+  </si>
+  <si>
+    <t>3.03</t>
+  </si>
+  <si>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>分期利息余额</t>
+  </si>
+  <si>
+    <t>71.29</t>
+  </si>
+  <si>
+    <t>2014-08</t>
+  </si>
+  <si>
+    <t>2014-07-04</t>
+  </si>
+  <si>
+    <t>2014-08-03</t>
+  </si>
+  <si>
+    <t>185.71</t>
+  </si>
+  <si>
+    <t>2.88</t>
+  </si>
+  <si>
+    <t>7.07</t>
+  </si>
+  <si>
+    <t>7.85</t>
+  </si>
+  <si>
+    <t>74.77</t>
+  </si>
+  <si>
+    <t>2014-09</t>
+  </si>
+  <si>
+    <t>2014-08-04</t>
+  </si>
+  <si>
+    <t>2014-09-03</t>
+  </si>
+  <si>
+    <t>254.02</t>
+  </si>
+  <si>
+    <t>3.94</t>
+  </si>
+  <si>
+    <t>10.28</t>
+  </si>
+  <si>
+    <t>11.10</t>
+  </si>
+  <si>
+    <t>75.93</t>
+  </si>
+  <si>
+    <t>2014-10</t>
+  </si>
+  <si>
+    <t>2014-09-04</t>
+  </si>
+  <si>
+    <t>2014-10-03</t>
+  </si>
+  <si>
+    <t>323.39</t>
+  </si>
+  <si>
+    <t>4.85</t>
+  </si>
+  <si>
+    <t>13.54</t>
+  </si>
+  <si>
+    <t>14.40</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>74.62</t>
+  </si>
+  <si>
+    <t>2014-11</t>
+  </si>
+  <si>
+    <t>2014-10-04</t>
+  </si>
+  <si>
+    <t>2014-11-03</t>
+  </si>
+  <si>
+    <t>391.56</t>
+  </si>
+  <si>
+    <t>6.07</t>
+  </si>
+  <si>
+    <t>16.75</t>
+  </si>
+  <si>
+    <t>17.65</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>78.26</t>
+  </si>
+  <si>
+    <t>2014-12</t>
+  </si>
+  <si>
+    <t>2014-11-04</t>
+  </si>
+  <si>
+    <t>2014-12-03</t>
+  </si>
+  <si>
+    <t>463.06</t>
+  </si>
+  <si>
+    <t>6.95</t>
+  </si>
+  <si>
+    <t>20.11</t>
+  </si>
+  <si>
+    <t>21.06</t>
+  </si>
+  <si>
+    <t>76.91</t>
+  </si>
+  <si>
+    <t>2014-05-11</t>
+  </si>
+  <si>
+    <t>16.89</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>2682.96</t>
+  </si>
+  <si>
+    <t>2014-05-12</t>
+  </si>
+  <si>
+    <t>30.85</t>
+  </si>
+  <si>
+    <t>1900.00</t>
+  </si>
+  <si>
+    <t>2014-05-19</t>
+  </si>
+  <si>
+    <t>15.20</t>
+  </si>
+  <si>
+    <t>77.49</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
+    <t>2014-05-07</t>
+  </si>
+  <si>
+    <t>2014-05-16</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>2014-05-09</t>
+  </si>
+  <si>
+    <t>星巴克咖啡（大连）有限公*</t>
+  </si>
+  <si>
+    <t>254.00</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>296.00</t>
+  </si>
+  <si>
+    <t>2014-05-15</t>
+  </si>
+  <si>
+    <t>19.80</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>2014-05-17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2.03</t>
+  </si>
+  <si>
+    <t>支付宝-网购(支付宝-网购)</t>
+  </si>
+  <si>
+    <t>2.66</t>
+  </si>
+  <si>
+    <t>大连锦辉购物广场有限责任公司书香园店(支付宝-网购)</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>支付宝-网购(回算)</t>
+  </si>
+  <si>
+    <t>2014-05-18</t>
+  </si>
+  <si>
+    <t>1.72</t>
+  </si>
+  <si>
+    <t>账单分期(交易) 02-03</t>
+  </si>
+  <si>
+    <t>63.90</t>
+  </si>
+  <si>
+    <t>2014-05-20</t>
+  </si>
+  <si>
+    <t>3287.66</t>
+  </si>
+  <si>
+    <t>49.31</t>
+  </si>
+  <si>
+    <t>59.07</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>28.50</t>
+  </si>
+  <si>
+    <t>16.00</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>2.42</t>
+  </si>
+  <si>
+    <t>91.86</t>
+  </si>
+  <si>
+    <t>50.96</t>
+  </si>
+  <si>
+    <t>117.40</t>
+  </si>
+  <si>
+    <t>1.82</t>
+  </si>
+  <si>
+    <t>29.45</t>
+  </si>
+  <si>
+    <t>44.74</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>7.21</t>
+  </si>
+  <si>
+    <t>86.16</t>
+  </si>
+  <si>
+    <t>2017-01</t>
+  </si>
+  <si>
+    <t>2017-02</t>
+  </si>
+  <si>
+    <t>2017-03</t>
+  </si>
+  <si>
+    <t>2017-04</t>
+  </si>
+  <si>
+    <t>2017-05</t>
+  </si>
+  <si>
+    <t>2017-06</t>
+  </si>
+  <si>
+    <t>2017-07</t>
+  </si>
+  <si>
+    <t>2017-08</t>
+  </si>
+  <si>
+    <t>2017-09</t>
+  </si>
+  <si>
+    <t>2017-10</t>
+  </si>
+  <si>
+    <t>2017-12</t>
+  </si>
+  <si>
+    <t>170.18</t>
+  </si>
+  <si>
+    <t>2.64</t>
+  </si>
+  <si>
+    <t>74.89</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>10.45</t>
+  </si>
+  <si>
+    <t>87.50</t>
+  </si>
+  <si>
+    <t>223.78</t>
+  </si>
+  <si>
+    <t>3.36</t>
+  </si>
+  <si>
+    <t>105.50</t>
+  </si>
+  <si>
+    <t>13.74</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>85.99</t>
+  </si>
+  <si>
+    <t>276.45</t>
+  </si>
+  <si>
+    <t>4.28</t>
+  </si>
+  <si>
+    <t>135.58</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>16.98</t>
+  </si>
+  <si>
+    <t>90.19</t>
+  </si>
+  <si>
+    <t>331.69</t>
+  </si>
+  <si>
+    <t>4.98</t>
+  </si>
+  <si>
+    <t>167.13</t>
+  </si>
+  <si>
+    <t>2.51</t>
+  </si>
+  <si>
+    <t>20.37</t>
+  </si>
+  <si>
+    <t>88.63</t>
+  </si>
+  <si>
+    <t>3615.23</t>
+  </si>
+  <si>
+    <t>14.46</t>
+  </si>
+  <si>
+    <t>2076.92</t>
+  </si>
+  <si>
+    <t>23.88</t>
+  </si>
+  <si>
+    <t>63.25</t>
+  </si>
+  <si>
+    <t>2681.62</t>
+  </si>
+  <si>
+    <t>40.22</t>
+  </si>
+  <si>
+    <t>44.82</t>
+  </si>
+  <si>
+    <t>82.55</t>
+  </si>
+  <si>
+    <t>2016-02</t>
+  </si>
+  <si>
+    <t>245.85</t>
+  </si>
+  <si>
+    <t>2016-01-03</t>
+  </si>
+  <si>
+    <t>2016-02-03</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>8400.00</t>
+  </si>
+  <si>
+    <t>2016-01-04</t>
+  </si>
+  <si>
+    <t>2016-01-05</t>
+  </si>
+  <si>
+    <t>8.40</t>
+  </si>
+  <si>
+    <t>7049.75</t>
+  </si>
+  <si>
+    <t>2016-01-06</t>
+  </si>
+  <si>
+    <t>3.52</t>
+  </si>
+  <si>
+    <t>上期取现余额(本行CDM还款)</t>
+  </si>
+  <si>
+    <t>6607.75</t>
+  </si>
+  <si>
+    <t>2016-01-07</t>
+  </si>
+  <si>
+    <t>3.30</t>
+  </si>
+  <si>
+    <t>上期取现余额(账单分期￥-       574.50)</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>预借现金 招商银行         大连市</t>
+  </si>
+  <si>
+    <t>5816.30</t>
+  </si>
+  <si>
+    <t>2016-01-08</t>
+  </si>
+  <si>
+    <t>78.52</t>
+  </si>
+  <si>
+    <t>上期取现余额(账单分期￥-      1251.45)</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>2016-01-10</t>
+  </si>
+  <si>
+    <t>6.25</t>
+  </si>
+  <si>
+    <t>预借现金 中国工商银行     大连市</t>
+  </si>
+  <si>
+    <t>2016-01-16</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>预借现金 中国银行         大连市</t>
+  </si>
+  <si>
+    <t>151.93</t>
+  </si>
+  <si>
+    <t>3.81</t>
+  </si>
+  <si>
+    <t>151.81</t>
+  </si>
+  <si>
+    <t>2015-11</t>
+  </si>
+  <si>
+    <t>2015-12</t>
+  </si>
+  <si>
+    <t>2016-01</t>
+  </si>
+  <si>
+    <t>940.00</t>
+  </si>
+  <si>
+    <t>2015-12-09</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>12.22</t>
+  </si>
+  <si>
+    <t>2015-12-12</t>
+  </si>
+  <si>
+    <t>5.75</t>
+  </si>
+  <si>
+    <t>17.97</t>
+  </si>
+  <si>
+    <t>2015-12-10</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>好利来优惠券</t>
+  </si>
+  <si>
+    <t>328.72</t>
+  </si>
+  <si>
+    <t>4.11</t>
+  </si>
+  <si>
+    <t>账单分期(账单) 11-12</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>2015-12-11</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>京东支付：京东商城（实物）</t>
+  </si>
+  <si>
+    <t>14.00</t>
+  </si>
+  <si>
+    <t>228.10</t>
+  </si>
+  <si>
+    <t>2015-12-27</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>账单分期(交易) 10-12</t>
+  </si>
+  <si>
+    <t>507.33</t>
+  </si>
+  <si>
+    <t>2015-12-29</t>
+  </si>
+  <si>
+    <t>信用卡商城苹果店 10-12</t>
+  </si>
+  <si>
+    <t>21.61</t>
+  </si>
+  <si>
+    <t>2016-01-01</t>
+  </si>
+  <si>
+    <t>好利来优惠券(支付宝-网购)</t>
+  </si>
+  <si>
+    <t>京东支付：京东商城（实物）(支付宝-网购)</t>
+  </si>
+  <si>
+    <t>3.39</t>
+  </si>
+  <si>
+    <t>123.61</t>
+  </si>
+  <si>
+    <t>1.92</t>
+  </si>
+  <si>
+    <t>1440.00</t>
+  </si>
+  <si>
+    <t>22.32</t>
+  </si>
+  <si>
+    <t>1064.15</t>
+  </si>
+  <si>
+    <t>16.49</t>
+  </si>
+  <si>
+    <t>49.10</t>
+  </si>
+  <si>
+    <t>2016-03</t>
+  </si>
+  <si>
+    <t>2016-02-04</t>
+  </si>
+  <si>
+    <t>2016-03-03</t>
+  </si>
+  <si>
+    <t>1.79</t>
+  </si>
+  <si>
+    <t>3.47</t>
+  </si>
+  <si>
+    <t>20.88</t>
+  </si>
+  <si>
+    <t>40.57</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>15.43</t>
+  </si>
+  <si>
+    <t>23.04</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>39.08</t>
+  </si>
+  <si>
+    <t>986.04</t>
+  </si>
+  <si>
+    <t>12.82</t>
+  </si>
+  <si>
+    <t>预借现金 招商银行         大连市(支付宝网络还款)</t>
+  </si>
+  <si>
+    <t>18.57</t>
+  </si>
+  <si>
+    <t>1486.04</t>
+  </si>
+  <si>
+    <t>23.03</t>
+  </si>
+  <si>
+    <t>49.83</t>
+  </si>
+  <si>
+    <t>21.55</t>
+  </si>
+  <si>
+    <t>41.89</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>39.76</t>
+  </si>
+  <si>
+    <t>2015-11-04</t>
+  </si>
+  <si>
+    <t>2015-12-03</t>
+  </si>
+  <si>
+    <t>2015-12-04</t>
+  </si>
+  <si>
+    <t>2015-12-08</t>
+  </si>
+  <si>
+    <t>1087.54</t>
+  </si>
+  <si>
+    <t>14.14</t>
+  </si>
+  <si>
+    <t>19.89</t>
+  </si>
+  <si>
+    <t>70.61</t>
+  </si>
+  <si>
+    <t>1587.54</t>
+  </si>
+  <si>
+    <t>24.61</t>
+  </si>
+  <si>
+    <t>51.42</t>
+  </si>
+  <si>
+    <t>23.02</t>
+  </si>
+  <si>
+    <t>44.80</t>
+  </si>
+  <si>
+    <t>41.28</t>
+  </si>
+  <si>
+    <t>2018-11-04</t>
+  </si>
+  <si>
+    <t>2018-12-03</t>
+  </si>
+  <si>
+    <t>2018-12-04</t>
+  </si>
+  <si>
+    <t>2019-01-03</t>
+  </si>
+  <si>
+    <t>2019-01-04</t>
+  </si>
+  <si>
+    <t>2019-02-03</t>
+  </si>
+  <si>
+    <t>1.60</t>
+  </si>
+  <si>
+    <t>-0.00</t>
+  </si>
+  <si>
+    <t>51.39</t>
+  </si>
+  <si>
+    <t>3.43</t>
+  </si>
+  <si>
+    <t>-3.39</t>
+  </si>
+  <si>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>51.35</t>
+  </si>
+  <si>
+    <t>3.40</t>
+  </si>
+  <si>
+    <t>41.27</t>
   </si>
 </sst>
 </file>
@@ -749,7 +2276,7 @@
   <sheetData>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>547</v>
       </c>
     </row>
     <row r="3">
@@ -774,32 +2301,32 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>610</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>611</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="E5" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7">
@@ -824,52 +2351,52 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>614</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>550</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>514</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>551</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>615</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>601</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>536</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>553</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>514</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>191</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>554</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>542</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>106</v>
+        <v>616</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12">
@@ -894,279 +2421,309 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>312</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>556</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>557</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>558</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>559</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>560</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>556</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>514</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>561</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>562</v>
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="s">
+        <v>563</v>
+      </c>
+      <c r="B15" t="s">
+        <v>564</v>
+      </c>
+      <c r="C15" t="s">
+        <v>514</v>
+      </c>
+      <c r="D15" t="s">
+        <v>187</v>
+      </c>
       <c r="E15" t="s">
-        <v>109</v>
+        <v>454</v>
+      </c>
+      <c r="F15" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>567</v>
+      </c>
+      <c r="B16" t="s">
+        <v>553</v>
+      </c>
+      <c r="C16" t="s">
+        <v>514</v>
+      </c>
+      <c r="D16" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>567</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>553</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>514</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>191</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
-        <v>6</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>568</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>569</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>514</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>224</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>570</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>571</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>572</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>573</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>514</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>574</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>575</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>576</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>514</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>577</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>634</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>553</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>557</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>635</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>580</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>518</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>515</v>
       </c>
       <c r="D22" t="s">
         <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>581</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>618</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>518</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>515</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>112</v>
+        <v>619</v>
       </c>
       <c r="F23" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="s">
+        <v>616</v>
+      </c>
+      <c r="B24" t="s">
+        <v>518</v>
+      </c>
+      <c r="C24" t="s">
+        <v>515</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
       <c r="E24" t="s">
-        <v>113</v>
+        <v>42</v>
+      </c>
+      <c r="F24" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>584</v>
+      </c>
+      <c r="B25" t="s">
+        <v>518</v>
+      </c>
+      <c r="C25" t="s">
+        <v>515</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" t="s">
+        <v>585</v>
+      </c>
+      <c r="F25" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>4</v>
-      </c>
       <c r="E26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" t="s">
-        <v>6</v>
+        <v>636</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" t="s">
-        <v>36</v>
+        <v>587</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>580</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>588</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>589</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>590</v>
       </c>
       <c r="F29" t="s">
         <v>23</v>
@@ -1174,19 +2731,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>637</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>588</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>589</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="F30" t="s">
         <v>44</v>
@@ -1194,19 +2751,19 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>618</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>588</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>589</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="E31" t="s">
-        <v>115</v>
+        <v>621</v>
       </c>
       <c r="F31" t="s">
         <v>45</v>
@@ -1214,357 +2771,67 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>116</v>
+        <v>622</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>588</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>589</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="E32" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F32" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="s">
+        <v>584</v>
+      </c>
+      <c r="B33" t="s">
+        <v>588</v>
+      </c>
+      <c r="C33" t="s">
+        <v>589</v>
+      </c>
+      <c r="D33" t="s">
+        <v>169</v>
+      </c>
       <c r="E33" t="s">
-        <v>118</v>
+        <v>595</v>
+      </c>
+      <c r="F33" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>596</v>
+      </c>
+      <c r="B34" t="s">
+        <v>588</v>
+      </c>
+      <c r="C34" t="s">
+        <v>589</v>
+      </c>
+      <c r="D34" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" t="s">
+        <v>597</v>
+      </c>
+      <c r="F34" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" t="s">
-        <v>4</v>
-      </c>
       <c r="E35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>114</v>
-      </c>
-      <c r="B38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" t="s">
-        <v>119</v>
-      </c>
-      <c r="F38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>120</v>
-      </c>
-      <c r="B39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" t="s">
-        <v>121</v>
-      </c>
-      <c r="F39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="E40" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" t="s">
-        <v>55</v>
-      </c>
-      <c r="D43" t="s">
-        <v>30</v>
-      </c>
-      <c r="E43" t="s">
-        <v>84</v>
-      </c>
-      <c r="F43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>99</v>
-      </c>
-      <c r="B44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" t="s">
-        <v>57</v>
-      </c>
-      <c r="F44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>114</v>
-      </c>
-      <c r="B45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E45" t="s">
-        <v>115</v>
-      </c>
-      <c r="F45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>123</v>
-      </c>
-      <c r="B46" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" t="s">
-        <v>30</v>
-      </c>
-      <c r="E46" t="s">
-        <v>124</v>
-      </c>
-      <c r="F46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="E47" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" t="s">
-        <v>71</v>
-      </c>
-      <c r="D50" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>126</v>
-      </c>
-      <c r="B51" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51" t="s">
-        <v>17</v>
-      </c>
-      <c r="E51" t="s">
-        <v>127</v>
-      </c>
-      <c r="F51" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>114</v>
-      </c>
-      <c r="B52" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" t="s">
-        <v>71</v>
-      </c>
-      <c r="D52" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" t="s">
-        <v>119</v>
-      </c>
-      <c r="F52" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>128</v>
-      </c>
-      <c r="B53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D53" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" t="s">
-        <v>72</v>
-      </c>
-      <c r="F53" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="E54" t="s">
-        <v>129</v>
+        <v>638</v>
       </c>
     </row>
   </sheetData>
